--- a/docs/14/Template - Lucas Schmidt.xlsx
+++ b/docs/14/Template - Lucas Schmidt.xlsx
@@ -596,7 +596,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -619,7 +618,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <u val="single"/>
@@ -627,14 +625,12 @@
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -652,14 +648,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -718,7 +714,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -759,15 +755,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1095,7 +1095,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="I3" s="8"/>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>39</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="D4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="7" t="n">
+      <c r="E4" s="10" t="n">
         <v>9783787322817</v>
       </c>
       <c r="G4" s="0" t="s">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I4" s="8"/>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>39</v>
       </c>
@@ -1217,7 +1217,7 @@
       <c r="D5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="0" t="s">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>39</v>
       </c>
@@ -1238,7 +1238,7 @@
       <c r="D6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>55</v>
       </c>
       <c r="G6" s="0" t="s">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>39</v>
       </c>
@@ -1262,12 +1262,12 @@
       <c r="D7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>39</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="D8" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="7" t="n">
+      <c r="E8" s="10" t="n">
         <v>9780205783861</v>
       </c>
       <c r="H8" s="0" t="s">
@@ -1349,7 +1349,7 @@
       <c r="E11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="11" t="s">
         <v>75</v>
       </c>
       <c r="I11" s="8"/>
@@ -1442,7 +1442,7 @@
       <c r="D16" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F16" s="11" t="s">
         <v>89</v>
       </c>
       <c r="I16" s="8"/>
@@ -1501,7 +1501,7 @@
       <c r="I1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       <c r="E4" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="13" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="0" t="s">
@@ -1557,7 +1557,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -1618,7 +1618,7 @@
       <c r="C10" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       <c r="A3" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="0" t="s">
@@ -1756,7 +1756,7 @@
       <c r="B9" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="13" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1844,13 +1844,13 @@
       <c r="C2" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="13" t="s">
         <v>167</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="13" t="s">
         <v>169</v>
       </c>
       <c r="N2" s="0" t="s">
@@ -1858,10 +1858,10 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>172</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -1890,10 +1890,10 @@
       <c r="D4" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1911,7 +1911,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="13" t="s">
         <v>184</v>
       </c>
     </row>
